--- a/examples/CompleteBaangtWebdemo_nested.xlsx
+++ b/examples/CompleteBaangtWebdemo_nested.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/examples/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A11540F-E3A3-F341-B6A2-228007EA3B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47780" yWindow="3460" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47775" yWindow="3465" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="TestStepExecution" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="136">
   <si>
     <t>Activity</t>
   </si>
@@ -412,9 +406,6 @@
     <t>TCLine</t>
   </si>
   <si>
-    <t>RLP_(LoopDataExampleTab,line_reference=TCLine)</t>
-  </si>
-  <si>
     <t>$(textarea2.input_text)</t>
   </si>
   <si>
@@ -425,13 +416,22 @@
   </si>
   <si>
     <t>[{"input_text":"Franzi", "input_date":[[{"delivery_date":"2020-01-01"}, "quantity":"5"],[{delivery-date":"2020-02-02"},{"quantity":"10"}]], {"input_text":"Fritzi","input_date":[[{"delivery_date":"2019-05-01"}, "quantity":"300"],[{delivery-date":"2019-10-10"},{"quantity":"4000"}]]]</t>
+  </si>
+  <si>
+    <t>RLP_(LoopDataExampleTab,line_reference=1)</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div[1]/div/div/form/div[7]/textarea</t>
+  </si>
+  <si>
+    <t>Nested loop 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,8 +492,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -551,7 +551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,27 +583,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,24 +617,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -828,27 +792,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -888,7 +852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -902,7 +866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -910,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -921,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -932,7 +896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -943,7 +907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -954,7 +918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -965,7 +929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -976,7 +940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -987,7 +951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -998,12 +962,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1011,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1022,7 +986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1036,7 +1000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1058,7 +1022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1036,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1086,7 +1050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1119,7 +1083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1130,7 +1094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1141,7 +1105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1152,7 +1116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +1141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1205,7 +1169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1219,7 +1183,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1230,7 +1194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1241,7 +1205,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1255,7 +1219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1266,7 +1230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1280,7 +1244,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1294,7 +1258,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1305,7 +1269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -1313,7 +1277,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="5" customFormat="1">
       <c r="A40" s="5" t="s">
         <v>120</v>
       </c>
@@ -1321,7 +1285,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="5" customFormat="1">
       <c r="A41" s="5" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1296,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="5" customFormat="1">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
@@ -1340,13 +1304,13 @@
         <v>10</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -1354,163 +1318,187 @@
         <v>10</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="5" customFormat="1">
       <c r="A44" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="5" customFormat="1">
       <c r="A45" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="5" customFormat="1">
       <c r="A46" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:6" s="5" customFormat="1">
+      <c r="A47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="5" customFormat="1">
+      <c r="A48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="5" customFormat="1">
+      <c r="A49" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>63</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="D58">
+      <c r="D61">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1520,23 +1508,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="61" customWidth="1"/>
-    <col min="4" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -1568,7 +1556,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1597,7 +1585,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1611,7 +1599,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>42</v>
@@ -1623,7 +1611,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1649,7 +1637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1675,7 +1663,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1698,7 +1686,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1724,7 +1712,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1750,7 +1738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1773,7 +1761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1787,7 +1775,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>42</v>
@@ -1804,15 +1792,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{D5BD7720-F086-D143-B676-18BC52AE5F54}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{12BBD998-E940-674A-93A5-A8EF6FC0071E}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{0DE51B95-492B-9548-8275-9705C0A81065}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{8029C5AE-1B80-CF4F-A17B-EE35AF521196}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{4E7EADC2-EA50-3D4B-B9F2-4F2F43C94F42}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{E67CC30E-A8D9-2C43-BE7C-EA59FFAAA9F3}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -1820,16 +1808,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -1846,7 +1834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -1863,7 +1851,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1877,7 +1865,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1894,7 +1882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1911,7 +1899,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -1928,7 +1916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -1945,7 +1933,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1962,7 +1950,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -1976,7 +1964,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -1993,7 +1981,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -2017,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F43A2-889B-0146-86B4-F279A64BC8AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2027,12 +2015,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -2043,7 +2031,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2054,7 +2042,7 @@
         <v>26343</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
